--- a/data/trans_orig/CAGE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CAGE-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5161</v>
+        <v>5619</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001950187652546909</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01089377364230511</v>
+        <v>0.01185962372739153</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4640</v>
+        <v>4642</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001183861723936794</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00594477888998818</v>
+        <v>0.005947294207910587</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4958</v>
+        <v>4959</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003222825032036622</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0161670338656032</v>
+        <v>0.01616933243789187</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4990</v>
+        <v>5348</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001266408584936922</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006394219407612493</v>
+        <v>0.006852994505615941</v>
       </c>
     </row>
     <row r="6">
@@ -917,7 +917,7 @@
         <v>472852</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>468615</v>
+        <v>468157</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>473776</v>
@@ -926,7 +926,7 @@
         <v>0.998049812347453</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9891062263576946</v>
+        <v>0.9881403762726085</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>305692</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>301722</v>
+        <v>301721</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>306680</v>
@@ -947,7 +947,7 @@
         <v>0.9967771749679634</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9838329661343969</v>
+        <v>0.9838306675621081</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>778545</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>773709</v>
+        <v>773762</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>780457</v>
@@ -968,7 +968,7 @@
         <v>0.9975497296911263</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9913542743229022</v>
+        <v>0.9914215457353899</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4791</v>
+        <v>5872</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002642091627745289</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01305771222038165</v>
+        <v>0.01600159768053657</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4879</v>
+        <v>4848</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001312229187900548</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00660394139810175</v>
+        <v>0.006562460509075586</v>
       </c>
     </row>
     <row r="11">
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5528</v>
+        <v>7494</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002955614137931461</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01506499245111228</v>
+        <v>0.0204219975632277</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5207</v>
+        <v>6293</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.00277062956298133</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01400197333530898</v>
+        <v>0.01692370883177537</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6508</v>
+        <v>7381</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002862504559295553</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008809374919219159</v>
+        <v>0.009990775189007648</v>
       </c>
     </row>
     <row r="12">
@@ -1244,7 +1244,7 @@
         <v>364880</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>360675</v>
+        <v>359625</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>366934</v>
@@ -1253,7 +1253,7 @@
         <v>0.9944022942343232</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9829431029607995</v>
+        <v>0.9800813542494039</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>370835</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>366658</v>
+        <v>365572</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>371865</v>
@@ -1274,7 +1274,7 @@
         <v>0.9972293704370186</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9859980266646909</v>
+        <v>0.9830762911682247</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1286,19 +1286,19 @@
         <v>735715</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>730444</v>
+        <v>729804</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>737837</v>
+        <v>737829</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9958252662528039</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.988691507727097</v>
+        <v>0.9878244921064391</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9986982096882253</v>
+        <v>0.9986865807851115</v>
       </c>
     </row>
     <row r="13">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5987</v>
+        <v>6063</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003212560860372614</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01103859309478133</v>
+        <v>0.01117817861592579</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6225</v>
+        <v>5414</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002453575224521665</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008764925185647697</v>
+        <v>0.007623416736346002</v>
       </c>
     </row>
     <row r="15">
@@ -1500,19 +1500,19 @@
         <v>2804</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7415</v>
+        <v>8105</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005170208307246848</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001556536479939024</v>
+        <v>0.001559997590592016</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01367176989248585</v>
+        <v>0.01494374591848918</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>2804</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7587</v>
+        <v>7598</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003948717412564634</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001195223245664505</v>
+        <v>0.001197233182988851</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0106830085411572</v>
+        <v>0.01069921176777274</v>
       </c>
     </row>
     <row r="17">
@@ -1563,19 +1563,19 @@
         <v>537842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>532409</v>
+        <v>532307</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>541396</v>
+        <v>540654</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9916172308323805</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.981600835542466</v>
+        <v>0.9814116329213154</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9981688871535865</v>
+        <v>0.9968020832824005</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>164</v>
@@ -1597,19 +1597,19 @@
         <v>705624</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>699843</v>
+        <v>699973</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>708455</v>
+        <v>708413</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9935977073629138</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9854575222011418</v>
+        <v>0.9856402156276691</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9975838868688239</v>
+        <v>0.9975240736243862</v>
       </c>
     </row>
     <row r="18">
@@ -1701,19 +1701,19 @@
         <v>2940</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8091</v>
+        <v>7925</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002374542793990638</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0007239590553339948</v>
+        <v>0.0007249334626060781</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.006534050137103271</v>
+        <v>0.006399909523687413</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1735,19 +1735,19 @@
         <v>2940</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8166</v>
+        <v>7958</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001505914326783846</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0004581272009125072</v>
+        <v>0.0004577780978800568</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004181946980177702</v>
+        <v>0.004075779049535749</v>
       </c>
     </row>
     <row r="20">
@@ -1764,19 +1764,19 @@
         <v>4960</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12446</v>
+        <v>12807</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004005552716744421</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001185568533529869</v>
+        <v>0.001181907229465813</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01005041617075051</v>
+        <v>0.01034208909007342</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1798,19 +1798,19 @@
         <v>4960</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>885</v>
+        <v>1171</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11706</v>
+        <v>12260</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002540286592475351</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0004532467820954436</v>
+        <v>0.0005995876493387252</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005995243648096425</v>
+        <v>0.006278802769183075</v>
       </c>
     </row>
     <row r="21">
@@ -1827,19 +1827,19 @@
         <v>5284</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1850</v>
+        <v>1904</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11938</v>
+        <v>12361</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004266709575963765</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001494027287086851</v>
+        <v>0.001537926899458334</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.00964035932175834</v>
+        <v>0.009981911214196667</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8213</v>
+        <v>10499</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.003366030112417046</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01149855364398928</v>
+        <v>0.01469919485354637</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1869,19 +1869,19 @@
         <v>7688</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2933</v>
+        <v>3464</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15680</v>
+        <v>16107</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.003937233171560708</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001502300171227462</v>
+        <v>0.001774279689717272</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.008030116766472918</v>
+        <v>0.008248768882514457</v>
       </c>
     </row>
     <row r="22">
@@ -1898,19 +1898,19 @@
         <v>1225150</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1215956</v>
+        <v>1215620</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1231863</v>
+        <v>1231278</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9893531949133012</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9819290095601186</v>
+        <v>0.9816572783757503</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9947743146257801</v>
+        <v>0.9943016556247543</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>692</v>
@@ -1919,7 +1919,7 @@
         <v>711881</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>706072</v>
+        <v>703786</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>714285</v>
@@ -1928,7 +1928,7 @@
         <v>0.9966339698875829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9885014463560107</v>
+        <v>0.985300805146454</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1940,19 +1940,19 @@
         <v>1937031</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1926474</v>
+        <v>1925792</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1943712</v>
+        <v>1943499</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9920165659091801</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9866098994592418</v>
+        <v>0.9862604979412903</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9954377388836851</v>
+        <v>0.9953290801206578</v>
       </c>
     </row>
     <row r="23">
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5146</v>
+        <v>5861</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.001789288506299967</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.009047851982362524</v>
+        <v>0.01030507721661287</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5110</v>
+        <v>4193</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001106987121197402</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.005558520183277667</v>
+        <v>0.004561279661118769</v>
       </c>
     </row>
     <row r="25">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4991</v>
+        <v>5186</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002589186738813438</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01423811231993758</v>
+        <v>0.014794012325002</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4104</v>
+        <v>4555</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0009873230012720142</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.004464079286883853</v>
+        <v>0.004954567120187924</v>
       </c>
     </row>
     <row r="26">
@@ -2170,19 +2170,19 @@
         <v>2964</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8050</v>
+        <v>9142</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008456325325396235</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00260114771885436</v>
+        <v>0.002586927552678424</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02296461405549343</v>
+        <v>0.02607760766634549</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9536</v>
+        <v>9619</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004976485684565475</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01676568932767242</v>
+        <v>0.01691236186878231</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2212,19 +2212,19 @@
         <v>5795</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12986</v>
+        <v>13379</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006303437374309129</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002252473226507166</v>
+        <v>0.002273354815637709</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01412628865738626</v>
+        <v>0.01455326685249088</v>
       </c>
     </row>
     <row r="27">
@@ -2241,19 +2241,19 @@
         <v>346683</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>341538</v>
+        <v>339648</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>349547</v>
+        <v>349574</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9889544879357903</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.974278682006636</v>
+        <v>0.9688854141254302</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9971236867941942</v>
+        <v>0.9972009390243241</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>536</v>
@@ -2262,19 +2262,19 @@
         <v>564904</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>558325</v>
+        <v>557730</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>567735</v>
+        <v>568752</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9932342258091346</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9816671529518486</v>
+        <v>0.9806214135434383</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9982116632937088</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>872</v>
@@ -2283,19 +2283,19 @@
         <v>911587</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>903266</v>
+        <v>903917</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>915900</v>
+        <v>916265</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9916022525032214</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9825510408477344</v>
+        <v>0.9832593482198303</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9962941585961022</v>
+        <v>0.9966915178239258</v>
       </c>
     </row>
     <row r="28">
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5097</v>
+        <v>5089</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.00081493730378546</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.004081609446168251</v>
+        <v>0.004075341940404036</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6494</v>
+        <v>5114</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0006578455289028181</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.004198145820239646</v>
+        <v>0.003305610091721882</v>
       </c>
     </row>
     <row r="31">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5260</v>
+        <v>5342</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003546886053532097</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01763975240244477</v>
+        <v>0.0179125626565868</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4822</v>
+        <v>5319</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0006837171680172963</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.003116948849114403</v>
+        <v>0.00343849402329031</v>
       </c>
     </row>
     <row r="32">
@@ -2560,7 +2560,7 @@
         <v>297143</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>292941</v>
+        <v>292859</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>298201</v>
@@ -2569,7 +2569,7 @@
         <v>0.9964531139464678</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9823602475975552</v>
+        <v>0.9820874373434132</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -2581,7 +2581,7 @@
         <v>1247742</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1243663</v>
+        <v>1243671</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>1248760</v>
@@ -2590,7 +2590,7 @@
         <v>0.9991850626962145</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9959183905538317</v>
+        <v>0.995924658059596</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -2602,7 +2602,7 @@
         <v>1544885</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1539698</v>
+        <v>1540134</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>1546960</v>
@@ -2611,7 +2611,7 @@
         <v>0.9986584373030799</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9953058658588291</v>
+        <v>0.9955872108549055</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -2706,19 +2706,19 @@
         <v>5607</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1968</v>
+        <v>2024</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>11878</v>
+        <v>12161</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.001714545535755742</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0006018625412462191</v>
+        <v>0.000618976628538713</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.003632256996239376</v>
+        <v>0.003718706106551339</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5104</v>
+        <v>5840</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0003012503131864321</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.001510954950866532</v>
+        <v>0.001728904303028202</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -2748,19 +2748,19 @@
         <v>6625</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2832</v>
+        <v>2820</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>13505</v>
+        <v>13317</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.000996425644655765</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0004260133299358998</v>
+        <v>0.0004242282939445621</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.002031288918617602</v>
+        <v>0.002003009817597721</v>
       </c>
     </row>
     <row r="35">
@@ -2777,19 +2777,19 @@
         <v>6837</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14868</v>
+        <v>15439</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.002090808256312025</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0008087009695281472</v>
+        <v>0.0008056958202442635</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.004546444165731554</v>
+        <v>0.004721247269376953</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7007</v>
+        <v>7283</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0005938319651810918</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.002074268761328454</v>
+        <v>0.002155973695748711</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -2819,19 +2819,19 @@
         <v>8843</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3653</v>
+        <v>4019</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>16645</v>
+        <v>17417</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.001330168558392524</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0005494396389293569</v>
+        <v>0.000604584466045671</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.00250359907402778</v>
+        <v>0.002619769863611493</v>
       </c>
     </row>
     <row r="36">
@@ -2848,19 +2848,19 @@
         <v>13194</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7722</v>
+        <v>6875</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>22719</v>
+        <v>22568</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.004034776870809283</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.002361304770340596</v>
+        <v>0.002102268886251136</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.006947358398767862</v>
+        <v>0.006901235147844319</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -2869,19 +2869,19 @@
         <v>6265</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2121</v>
+        <v>2133</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13453</v>
+        <v>14564</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001854576829201926</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0006277802292143869</v>
+        <v>0.0006315202114837424</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.003982256825457249</v>
+        <v>0.004311151237255465</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>18</v>
@@ -2890,19 +2890,19 @@
         <v>19459</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>11960</v>
+        <v>12159</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>30367</v>
+        <v>29631</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.002926979298544823</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001798936669885318</v>
+        <v>0.001828910029932095</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.004567603197794046</v>
+        <v>0.004456930930988904</v>
       </c>
     </row>
     <row r="37">
@@ -2919,19 +2919,19 @@
         <v>3244551</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3232222</v>
+        <v>3232738</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3253023</v>
+        <v>3254116</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.992159869337123</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9883898165647073</v>
+        <v>0.9885475396565802</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9947503854381293</v>
+        <v>0.9950848091188544</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3288</v>
@@ -2940,19 +2940,19 @@
         <v>3368835</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3361019</v>
+        <v>3360031</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3373992</v>
+        <v>3373842</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9972503408924306</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9949365285047558</v>
+        <v>0.9946440170417463</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9987767251159547</v>
+        <v>0.9987323576664716</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6470</v>
@@ -2961,19 +2961,19 @@
         <v>6613387</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6600003</v>
+        <v>6600497</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6624166</v>
+        <v>6624241</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9947464264984069</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.992733384496325</v>
+        <v>0.9928076864384043</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.996367805054706</v>
+        <v>0.9963790849729403</v>
       </c>
     </row>
     <row r="38">
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5308</v>
+        <v>5789</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00201052411953392</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01214042226088894</v>
+        <v>0.01324067903403744</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4924</v>
+        <v>4415</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001169434226684125</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006551014621653061</v>
+        <v>0.005873496799262207</v>
       </c>
     </row>
     <row r="5">
@@ -3370,19 +3370,19 @@
         <v>4660</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1657</v>
+        <v>1637</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12461</v>
+        <v>13364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01065803204491502</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003790638530951172</v>
+        <v>0.003744389783594565</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02850060990004663</v>
+        <v>0.03056723979026776</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3404,19 +3404,19 @@
         <v>4660</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1126</v>
+        <v>1655</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11699</v>
+        <v>12355</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006199312577910877</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001498381844496971</v>
+        <v>0.002202063725530315</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01556468236166761</v>
+        <v>0.01643639985093084</v>
       </c>
     </row>
     <row r="6">
@@ -3436,16 +3436,16 @@
         <v>924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7597</v>
+        <v>8525</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006506122001240166</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002113755390205219</v>
+        <v>0.002113170754793337</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01737660066042107</v>
+        <v>0.01949801772174482</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -3467,19 +3467,19 @@
         <v>2845</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7636</v>
+        <v>8121</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003784327518038763</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001213766874543923</v>
+        <v>0.001229220263067408</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01015901195476331</v>
+        <v>0.01080393826477657</v>
       </c>
     </row>
     <row r="7">
@@ -3496,19 +3496,19 @@
         <v>428828</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>420245</v>
+        <v>420425</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>433294</v>
+        <v>433508</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9808253218343109</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9611955426443353</v>
+        <v>0.9616063360507719</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9910404470826168</v>
+        <v>0.991531272993277</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>283</v>
@@ -3530,19 +3530,19 @@
         <v>743282</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>736441</v>
+        <v>734963</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>748037</v>
+        <v>747819</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9888469256773662</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9797464654979819</v>
+        <v>0.9777800490162907</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9951736770202169</v>
+        <v>0.9948834818950412</v>
       </c>
     </row>
     <row r="8">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4575</v>
+        <v>5432</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00234732701128726</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01092451091308184</v>
+        <v>0.01297010328496169</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5327</v>
+        <v>5241</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001298946810904381</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007039169019225674</v>
+        <v>0.006924616983989646</v>
       </c>
     </row>
     <row r="11">
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15136</v>
+        <v>16523</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01095653970444752</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03614239422904904</v>
+        <v>0.03945315742520861</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5740</v>
+        <v>5713</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003339243880493971</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01698032792334035</v>
+        <v>0.01690329358894775</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -3786,19 +3786,19 @@
         <v>5717</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17044</v>
+        <v>15946</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007554447842558746</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0014981556473043</v>
+        <v>0.001494819202273294</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02252051759329753</v>
+        <v>0.02107036138764776</v>
       </c>
     </row>
     <row r="12">
@@ -3815,19 +3815,19 @@
         <v>413225</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>402380</v>
+        <v>399808</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>417796</v>
+        <v>417798</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9866961332842652</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9607991059715235</v>
+        <v>0.9546571806226423</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9976105025899689</v>
+        <v>0.9976141432006901</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>304</v>
@@ -3836,7 +3836,7 @@
         <v>336882</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>332271</v>
+        <v>332298</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>338011</v>
@@ -3845,7 +3845,7 @@
         <v>0.996660756119506</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9830196720766595</v>
+        <v>0.9830967064110523</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -3857,19 +3857,19 @@
         <v>750108</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>739295</v>
+        <v>739601</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>754703</v>
+        <v>754811</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9911466053465369</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9768587279285182</v>
+        <v>0.9772641417547353</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9972181777650617</v>
+        <v>0.9973606813244026</v>
       </c>
     </row>
     <row r="13">
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6253</v>
+        <v>6269</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001984115096873634</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009934088078828146</v>
+        <v>0.009960093688880726</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6270</v>
+        <v>5553</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001403900307825262</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007048516168320391</v>
+        <v>0.006242932778846394</v>
       </c>
     </row>
     <row r="15">
@@ -4024,19 +4024,19 @@
         <v>4090</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12680</v>
+        <v>15364</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.00649817453091147</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001352017548712543</v>
+        <v>0.001367449045633572</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02014585317208943</v>
+        <v>0.0244098825956876</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4058,19 +4058,19 @@
         <v>4090</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>13324</v>
+        <v>14361</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.004597913315927915</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0009562169697704463</v>
+        <v>0.0009532515971285097</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01497818985805687</v>
+        <v>0.01614379854502716</v>
       </c>
     </row>
     <row r="16">
@@ -4087,19 +4087,19 @@
         <v>6833</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2903</v>
+        <v>2918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14765</v>
+        <v>15510</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01085677758395186</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004612286229697827</v>
+        <v>0.004636225287447194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02345828367905414</v>
+        <v>0.02464176565885355</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4121,19 +4121,19 @@
         <v>6833</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2898</v>
+        <v>2908</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15859</v>
+        <v>15628</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007681930053411186</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003257656385287811</v>
+        <v>0.003268538445719766</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01782808025558738</v>
+        <v>0.01756889782323364</v>
       </c>
     </row>
     <row r="17">
@@ -4150,19 +4150,19 @@
         <v>617243</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>606910</v>
+        <v>606626</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>623796</v>
+        <v>623205</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9806609327882631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9642443381380805</v>
+        <v>0.9637940108213077</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9910728218675903</v>
+        <v>0.9901332464769363</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>244</v>
@@ -4184,19 +4184,19 @@
         <v>877372</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>866819</v>
+        <v>865705</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>883422</v>
+        <v>883421</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9863162563228356</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9744533014061921</v>
+        <v>0.9732009293593877</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9931174749153474</v>
+        <v>0.9931162521997078</v>
       </c>
     </row>
     <row r="18">
@@ -4288,19 +4288,19 @@
         <v>4846</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1664</v>
+        <v>1776</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10543</v>
+        <v>10735</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004180772926557291</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001435290213534819</v>
+        <v>0.001532653347440674</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009096826854043786</v>
+        <v>0.009262358854594414</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -4322,19 +4322,19 @@
         <v>4846</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1661</v>
+        <v>1830</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10530</v>
+        <v>10810</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002516299686040847</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0008624567488059934</v>
+        <v>0.000950555123674144</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.005468476884146326</v>
+        <v>0.005613432993015179</v>
       </c>
     </row>
     <row r="20">
@@ -4351,19 +4351,19 @@
         <v>6852</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2710</v>
+        <v>2730</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16045</v>
+        <v>16026</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005912288052257238</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002338310255941075</v>
+        <v>0.002355810932492339</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01384330909426482</v>
+        <v>0.01382755189128846</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6046</v>
+        <v>5005</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001306475511249151</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.007885534831529923</v>
+        <v>0.006527896935564797</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -4393,19 +4393,19 @@
         <v>7854</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3591</v>
+        <v>3731</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17154</v>
+        <v>17327</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004078595608296671</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001864702062605381</v>
+        <v>0.001937516764117944</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008907940223922902</v>
+        <v>0.008997971955358246</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>11483</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5900</v>
+        <v>6543</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19520</v>
+        <v>19364</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.009907842406936781</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005090368375413185</v>
+        <v>0.005645417892110183</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01684221587442796</v>
+        <v>0.01670704031895281</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4456,19 +4456,19 @@
         <v>11483</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6411</v>
+        <v>6164</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>19660</v>
+        <v>19713</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00596327549376068</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003329485515330355</v>
+        <v>0.003200744136422166</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01020929623639153</v>
+        <v>0.01023679812519899</v>
       </c>
     </row>
     <row r="22">
@@ -4485,19 +4485,19 @@
         <v>1135828</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1124823</v>
+        <v>1123102</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1143980</v>
+        <v>1144524</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9799990966142487</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.970503994739386</v>
+        <v>0.9690195936841682</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9870329909494769</v>
+        <v>0.9875021299259651</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>710</v>
@@ -4506,7 +4506,7 @@
         <v>765655</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>760611</v>
+        <v>761652</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>766657</v>
@@ -4515,7 +4515,7 @@
         <v>0.9986935244887508</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9921144651684701</v>
+        <v>0.9934721030644352</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -4527,19 +4527,19 @@
         <v>1901484</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1890637</v>
+        <v>1889092</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1910040</v>
+        <v>1909531</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9874418292119018</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9818089416502886</v>
+        <v>0.9810065969317421</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9918851105110367</v>
+        <v>0.9916207467678932</v>
       </c>
     </row>
     <row r="23">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6168</v>
+        <v>6240</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.003737962463712055</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01207987550995817</v>
+        <v>0.01222076196554241</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7221</v>
+        <v>6558</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001500324466108162</v>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.005676450259886245</v>
+        <v>0.00515554346376944</v>
       </c>
     </row>
     <row r="25">
@@ -4694,19 +4694,19 @@
         <v>2639</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8046</v>
+        <v>6999</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005168367683600769</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001455727292974727</v>
+        <v>0.001437457798483315</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01575869684931365</v>
+        <v>0.01370679984687547</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -4728,19 +4728,19 @@
         <v>2639</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7137</v>
+        <v>8785</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002074453277909194</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0005813683600132465</v>
+        <v>0.0005811729179165611</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.00561011582552147</v>
+        <v>0.006905636510334921</v>
       </c>
     </row>
     <row r="26">
@@ -4757,19 +4757,19 @@
         <v>4823</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1895</v>
+        <v>1858</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11503</v>
+        <v>10832</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009446287001307148</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003710679515264616</v>
+        <v>0.003637948731985264</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0225287162984739</v>
+        <v>0.02121421708100021</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6938</v>
+        <v>7974</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002636800241115717</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.009110950912875004</v>
+        <v>0.01047067511551502</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -4799,19 +4799,19 @@
         <v>6831</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2938</v>
+        <v>2899</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14610</v>
+        <v>13057</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00536995759278403</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002309236143021007</v>
+        <v>0.002278862160489755</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01148506089644156</v>
+        <v>0.01026424229545223</v>
       </c>
     </row>
     <row r="27">
@@ -4828,19 +4828,19 @@
         <v>501225</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>493530</v>
+        <v>494188</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>505990</v>
+        <v>506223</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.98164738285138</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9665768240143789</v>
+        <v>0.9678640257583432</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9909795013104752</v>
+        <v>0.9914360550750968</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>701</v>
@@ -4849,7 +4849,7 @@
         <v>759514</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>754584</v>
+        <v>753548</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>761522</v>
@@ -4858,7 +4858,7 @@
         <v>0.9973631997588843</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9908890490871249</v>
+        <v>0.989529324884485</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -4870,19 +4870,19 @@
         <v>1260739</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1252714</v>
+        <v>1252775</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1266206</v>
+        <v>1265602</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9910552646631986</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9847467350386752</v>
+        <v>0.9847948882762234</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9953528585765438</v>
+        <v>0.9948777210364227</v>
       </c>
     </row>
     <row r="28">
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5948</v>
+        <v>7014</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.00734299357854289</v>
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0222887994000298</v>
+        <v>0.02628267799864658</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6779</v>
+        <v>6883</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001423968188023211</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.004925563117687395</v>
+        <v>0.005001678445681579</v>
       </c>
     </row>
     <row r="31">
@@ -5084,19 +5084,19 @@
         <v>5187</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1893</v>
+        <v>1854</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>11827</v>
+        <v>11110</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01943460254094076</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.007094694508987517</v>
+        <v>0.00694638632978659</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.044314729927321</v>
+        <v>0.04162729521888948</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4956</v>
+        <v>4944</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0008886910831416133</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.004467542579508958</v>
+        <v>0.004456910376355038</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -5126,19 +5126,19 @@
         <v>6173</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2819</v>
+        <v>2196</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>13124</v>
+        <v>12478</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.004485151797879378</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002048276960853597</v>
+        <v>0.001595332625390791</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.009535957378654203</v>
+        <v>0.00906686044059374</v>
       </c>
     </row>
     <row r="32">
@@ -5155,19 +5155,19 @@
         <v>259736</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>252242</v>
+        <v>253136</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>263659</v>
+        <v>263593</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9732224038805164</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9451447917520761</v>
+        <v>0.9484928878770316</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9879223326657279</v>
+        <v>0.9876760518712023</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1043</v>
@@ -5176,7 +5176,7 @@
         <v>1108365</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1104395</v>
+        <v>1104407</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>1109351</v>
@@ -5185,7 +5185,7 @@
         <v>0.9991113089168584</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.995532457420491</v>
+        <v>0.9955430896236449</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -5197,19 +5197,19 @@
         <v>1368101</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1360357</v>
+        <v>1360987</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1372293</v>
+        <v>1372450</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9940908800140974</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9884639622137337</v>
+        <v>0.9889216358165722</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9971372954266894</v>
+        <v>0.997251113396131</v>
       </c>
     </row>
     <row r="33">
@@ -5301,19 +5301,19 @@
         <v>8882</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4136</v>
+        <v>4357</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>17426</v>
+        <v>16542</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.002595625980724904</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001208747568418552</v>
+        <v>0.001273379656975817</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.005092349881054801</v>
+        <v>0.004834201837813303</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -5335,19 +5335,19 @@
         <v>8882</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4266</v>
+        <v>4399</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>16465</v>
+        <v>16507</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001273946288691154</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0006118673884990311</v>
+        <v>0.0006309008502318859</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.00236157679511627</v>
+        <v>0.002367656759876599</v>
       </c>
     </row>
     <row r="35">
@@ -5364,19 +5364,19 @@
         <v>21184</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12959</v>
+        <v>12887</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>35831</v>
+        <v>33410</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.006190684392545302</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.00378711430683552</v>
+        <v>0.003766025310864987</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01047119547635211</v>
+        <v>0.009763598725458743</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5569</v>
+        <v>5017</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0002821363001701241</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.001568815173107772</v>
+        <v>0.001413298982686748</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>20</v>
@@ -5406,19 +5406,19 @@
         <v>22186</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13560</v>
+        <v>13452</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>34766</v>
+        <v>34248</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.003182081426983955</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001944981923719032</v>
+        <v>0.00192946810143386</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.004986467596823161</v>
+        <v>0.004912149553919495</v>
       </c>
     </row>
     <row r="36">
@@ -5435,19 +5435,19 @@
         <v>35760</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23864</v>
+        <v>24670</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>49300</v>
+        <v>49959</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01045024383118944</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.006973805572686088</v>
+        <v>0.007209311901171388</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01440726176245262</v>
+        <v>0.01459965936397848</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -5456,19 +5456,19 @@
         <v>4123</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1125</v>
+        <v>996</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>11123</v>
+        <v>9895</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001161241474389384</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0003168855692434082</v>
+        <v>0.0002804587749180169</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.003132989085008688</v>
+        <v>0.002787280998421735</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>37</v>
@@ -5477,19 +5477,19 @@
         <v>39882</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>27913</v>
+        <v>27957</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>53891</v>
+        <v>55768</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005720330559629588</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004003576730673804</v>
+        <v>0.0040098455715193</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.007729647609864422</v>
+        <v>0.007998782741920854</v>
       </c>
     </row>
     <row r="37">
@@ -5506,19 +5506,19 @@
         <v>3356084</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3337737</v>
+        <v>3337077</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3371262</v>
+        <v>3371183</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9807634457955403</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9754018512753061</v>
+        <v>0.9752089332120522</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9851989253638097</v>
+        <v>0.9851756962157678</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3285</v>
@@ -5527,19 +5527,19 @@
         <v>3545001</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3538832</v>
+        <v>3538874</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3548127</v>
+        <v>3548144</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9985566222254405</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.99681886147278</v>
+        <v>0.9968308785689054</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9994373321401169</v>
+        <v>0.9994419467734168</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6429</v>
@@ -5548,19 +5548,19 @@
         <v>6901085</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6882158</v>
+        <v>6881419</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6917176</v>
+        <v>6916266</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9898236417246953</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9871089850465652</v>
+        <v>0.9870029421926345</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.992131578065987</v>
+        <v>0.9920010596920849</v>
       </c>
     </row>
     <row r="38">
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5887</v>
+        <v>5934</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002291579313386338</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01372069308367353</v>
+        <v>0.01383030323768692</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4952</v>
+        <v>5544</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001266897224176289</v>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006380651221420404</v>
+        <v>0.007143230663155694</v>
       </c>
     </row>
     <row r="6">
@@ -6004,19 +6004,19 @@
         <v>3956</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13560</v>
+        <v>11816</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009219678975213336</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002248637938352824</v>
+        <v>0.002250185981752069</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03160099355190067</v>
+        <v>0.02753669461193461</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -6025,19 +6025,19 @@
         <v>3747</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11295</v>
+        <v>11166</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01079746404091512</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002639048452587824</v>
+        <v>0.002667908506863047</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03254644349440896</v>
+        <v>0.03217352399430076</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -6046,19 +6046,19 @@
         <v>7703</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3051</v>
+        <v>2850</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17293</v>
+        <v>16306</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00992518721924554</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00393070003691458</v>
+        <v>0.003672266889284456</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02228004797022339</v>
+        <v>0.0210093407093493</v>
       </c>
     </row>
     <row r="7">
@@ -6075,19 +6075,19 @@
         <v>424153</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>415405</v>
+        <v>416274</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>427178</v>
+        <v>427185</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9884887417114003</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9681022720557305</v>
+        <v>0.9701284278312441</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.995538501241179</v>
+        <v>0.9955554701596697</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>329</v>
@@ -6096,19 +6096,19 @@
         <v>343308</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>335760</v>
+        <v>335889</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>346139</v>
+        <v>346129</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9892025359590849</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9674535565055922</v>
+        <v>0.9678264760056994</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9973609515474122</v>
+        <v>0.997332091493137</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>721</v>
@@ -6117,19 +6117,19 @@
         <v>767460</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>757877</v>
+        <v>758837</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>772316</v>
+        <v>772309</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9888079155565782</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9764612168791227</v>
+        <v>0.9776981270021976</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.99506390130262</v>
+        <v>0.995055623851496</v>
       </c>
     </row>
     <row r="8">
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6869</v>
+        <v>6347</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005282606907858717</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01820928105271813</v>
+        <v>0.01682528956484882</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6358</v>
+        <v>6917</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00265876081279932</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008482399129879907</v>
+        <v>0.009228660466843267</v>
       </c>
     </row>
     <row r="11">
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6215</v>
+        <v>5701</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.003001113835470538</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01647596669151987</v>
+        <v>0.01511304824859265</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -6352,19 +6352,19 @@
         <v>3181</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8596</v>
+        <v>8402</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008545775323907011</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002512448859703916</v>
+        <v>0.002499589633478636</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02309008794360554</v>
+        <v>0.02256817447779173</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -6373,19 +6373,19 @@
         <v>4313</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1114</v>
+        <v>1128</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10211</v>
+        <v>10956</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005755121212626937</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001486049625713554</v>
+        <v>0.001504683263091265</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01362417071521806</v>
+        <v>0.01461759262947715</v>
       </c>
     </row>
     <row r="12">
@@ -6402,19 +6402,19 @@
         <v>374102</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>368721</v>
+        <v>368208</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>376311</v>
+        <v>376309</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9917162792566707</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9774499374658179</v>
+        <v>0.9760910827464745</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9975720855196681</v>
+        <v>0.9975667058288553</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>349</v>
@@ -6423,19 +6423,19 @@
         <v>369092</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>363677</v>
+        <v>363871</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>371338</v>
+        <v>371342</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.991454224676093</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9769099120563944</v>
+        <v>0.9774318255222082</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9974875511402961</v>
+        <v>0.9975004103665214</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>700</v>
@@ -6444,19 +6444,19 @@
         <v>743194</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>736690</v>
+        <v>736102</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>747267</v>
+        <v>746835</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9915861179745737</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9829087198762555</v>
+        <v>0.9821236598413527</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9970212100851195</v>
+        <v>0.9964436335435368</v>
       </c>
     </row>
     <row r="13">
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6307</v>
+        <v>6020</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006645431790250488</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03796618099456234</v>
+        <v>0.0362383792560609</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5508</v>
+        <v>5552</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001604504662034549</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008004925826681978</v>
+        <v>0.008069349064117654</v>
       </c>
     </row>
     <row r="15">
@@ -6611,19 +6611,19 @@
         <v>2970</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7825</v>
+        <v>7932</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.005690017871244042</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.00172681935683441</v>
+        <v>0.001734100489896948</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01499258227842177</v>
+        <v>0.0151984131784529</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -6645,19 +6645,19 @@
         <v>2970</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8606</v>
+        <v>8048</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.00431619289047077</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001306954634550268</v>
+        <v>0.001309529551319867</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01250783693510807</v>
+        <v>0.01169753401560651</v>
       </c>
     </row>
     <row r="16">
@@ -6674,19 +6674,19 @@
         <v>5804</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2101</v>
+        <v>2158</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12802</v>
+        <v>13108</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01112063605887904</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004024745027647774</v>
+        <v>0.004134007491613504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02452917051684303</v>
+        <v>0.02511506910968271</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5901</v>
+        <v>5061</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006054274338120259</v>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.035523386239391</v>
+        <v>0.03046291383018356</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -6716,19 +6716,19 @@
         <v>6810</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2649</v>
+        <v>3028</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14387</v>
+        <v>13827</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00989738958564958</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003850667152742797</v>
+        <v>0.004401423627529696</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02091068345624288</v>
+        <v>0.02009598974395366</v>
       </c>
     </row>
     <row r="17">
@@ -6745,19 +6745,19 @@
         <v>513140</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>505645</v>
+        <v>505659</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>517841</v>
+        <v>517834</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.983189346069877</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9688274588561242</v>
+        <v>0.9688546890643088</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9921962293770534</v>
+        <v>0.9921829630183461</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>151</v>
@@ -6766,7 +6766,7 @@
         <v>164013</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>158509</v>
+        <v>159578</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>166123</v>
@@ -6775,7 +6775,7 @@
         <v>0.9873002938716292</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9541648763709422</v>
+        <v>0.9606027525986118</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -6787,19 +6787,19 @@
         <v>677153</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>668431</v>
+        <v>668043</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>682649</v>
+        <v>682443</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9841819128618451</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9715065304315854</v>
+        <v>0.9709419854000673</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9921709206041019</v>
+        <v>0.9918716694783621</v>
       </c>
     </row>
     <row r="18">
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5761</v>
+        <v>7053</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0009525963236154034</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.005010885823112498</v>
+        <v>0.006134572192561947</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5526</v>
+        <v>5469</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0005543575790885483</v>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.00279743505431714</v>
+        <v>0.002768280268778105</v>
       </c>
     </row>
     <row r="20">
@@ -6957,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8212</v>
+        <v>8000</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002020327150857166</v>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007142967877057462</v>
+        <v>0.006959125156958662</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9138</v>
+        <v>8121</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001175716975334685</v>
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004625426115385414</v>
+        <v>0.004110876358950355</v>
       </c>
     </row>
     <row r="21">
@@ -7017,19 +7017,19 @@
         <v>13657</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7541</v>
+        <v>7379</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24732</v>
+        <v>24870</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01187930814533014</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006559297029170365</v>
+        <v>0.006418804274534089</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02151320252577383</v>
+        <v>0.02163324119911915</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -7038,19 +7038,19 @@
         <v>2863</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7794</v>
+        <v>8114</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.003466447266552446</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0009990853643238537</v>
+        <v>0.0009980171264654142</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.009437843599153221</v>
+        <v>0.009825005461906778</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -7059,19 +7059,19 @@
         <v>16520</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9510</v>
+        <v>8940</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>26535</v>
+        <v>26743</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.008362259977930147</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004814162291058127</v>
+        <v>0.004525525258205391</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01343178002581698</v>
+        <v>0.01353740306177112</v>
       </c>
     </row>
     <row r="22">
@@ -7088,19 +7088,19 @@
         <v>1132563</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1119999</v>
+        <v>1120282</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1139272</v>
+        <v>1139560</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9851477683801972</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9742186201011414</v>
+        <v>0.9744652109192584</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9909835672231174</v>
+        <v>0.9912338094417302</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>795</v>
@@ -7109,19 +7109,19 @@
         <v>823013</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>818082</v>
+        <v>817762</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>825051</v>
+        <v>825052</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9965335527334476</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9905621564008467</v>
+        <v>0.9901749945380924</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9990009146356762</v>
+        <v>0.9990019828735346</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1883</v>
@@ -7130,19 +7130,19 @@
         <v>1955576</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1944863</v>
+        <v>1944017</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1963466</v>
+        <v>1963722</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9899076654676466</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9844846880040852</v>
+        <v>0.9840563379347925</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9939012074620569</v>
+        <v>0.9940311503362254</v>
       </c>
     </row>
     <row r="23">
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5287</v>
+        <v>5262</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001688752555748133</v>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.008517471554252958</v>
+        <v>0.008478087240708631</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5233</v>
+        <v>4525</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0007713445193132685</v>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.003850581907686201</v>
+        <v>0.003329616735066363</v>
       </c>
     </row>
     <row r="25">
@@ -7297,19 +7297,19 @@
         <v>4593</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1342</v>
+        <v>1307</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12068</v>
+        <v>11406</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007399076559054747</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002161626897287351</v>
+        <v>0.002106362664070535</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01944227302818017</v>
+        <v>0.01837528831850164</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -7331,19 +7331,19 @@
         <v>4593</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10990</v>
+        <v>11661</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00337955796565933</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0009561676368349925</v>
+        <v>0.0009617890412231334</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008087465740257406</v>
+        <v>0.00858103980864358</v>
       </c>
     </row>
     <row r="26">
@@ -7360,19 +7360,19 @@
         <v>3313</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9650</v>
+        <v>8726</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005337049715301424</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001512355234960232</v>
+        <v>0.001518004301475527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01554608614854439</v>
+        <v>0.0140581790878761</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5935</v>
+        <v>5574</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.001502278266326144</v>
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008039514724205584</v>
+        <v>0.007550806548749621</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -7402,19 +7402,19 @@
         <v>4422</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1077</v>
+        <v>1110</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10554</v>
+        <v>10658</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003253825542993739</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0007926693554466942</v>
+        <v>0.0008168678974003501</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007766066884453304</v>
+        <v>0.007842891529490399</v>
       </c>
     </row>
     <row r="27">
@@ -7431,19 +7431,19 @@
         <v>611752</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>602375</v>
+        <v>604010</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>616440</v>
+        <v>616892</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9855751211698957</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9704672317109977</v>
+        <v>0.9731014203466861</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9931264057515998</v>
+        <v>0.9938549735626798</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>698</v>
@@ -7452,7 +7452,7 @@
         <v>737135</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>732309</v>
+        <v>732670</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>738244</v>
@@ -7461,7 +7461,7 @@
         <v>0.9984977217336739</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9919604852757938</v>
+        <v>0.9924491934512504</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -7473,19 +7473,19 @@
         <v>1348887</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1340989</v>
+        <v>1341204</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1354510</v>
+        <v>1354183</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9925952719720337</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9867830698790275</v>
+        <v>0.986941577435368</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9967331367657614</v>
+        <v>0.9964922728830073</v>
       </c>
     </row>
     <row r="28">
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4855</v>
+        <v>5227</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0008523648615814073</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.004487087813400574</v>
+        <v>0.004830321299140899</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4654</v>
+        <v>4589</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0006736051502821675</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.003399313318690418</v>
+        <v>0.003351786043445104</v>
       </c>
     </row>
     <row r="30">
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4731</v>
+        <v>4723</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0008698310094926394</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.004372486912381273</v>
+        <v>0.004364807042693964</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4707</v>
+        <v>4708</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0006874082617416987</v>
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.003437865677378991</v>
+        <v>0.003438386278828063</v>
       </c>
     </row>
     <row r="31">
@@ -7703,19 +7703,19 @@
         <v>5914</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2160</v>
+        <v>2751</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>11957</v>
+        <v>12016</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02059552091065005</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.007523507974760498</v>
+        <v>0.009579371451726881</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04164195099770747</v>
+        <v>0.04184672472845496</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7159</v>
+        <v>7077</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001861563815719991</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.006616054779705138</v>
+        <v>0.006540567684107869</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -7745,19 +7745,19 @@
         <v>7928</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3940</v>
+        <v>3831</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>15111</v>
+        <v>15572</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.005790487816140204</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002877528306073891</v>
+        <v>0.002798229142440983</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01103629996960873</v>
+        <v>0.01137354621185868</v>
       </c>
     </row>
     <row r="32">
@@ -7774,19 +7774,19 @@
         <v>281231</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>275188</v>
+        <v>275129</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>284985</v>
+        <v>284394</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9794044790893499</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9583580490022923</v>
+        <v>0.9581532752715449</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9924764920252394</v>
+        <v>0.9904206285482731</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>988</v>
@@ -7795,19 +7795,19 @@
         <v>1078147</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1072993</v>
+        <v>1072412</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1081085</v>
+        <v>1081084</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.996416240313206</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9916529949409176</v>
+        <v>0.9911160751971675</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9991315589557326</v>
+        <v>0.9991299432438072</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1254</v>
@@ -7816,19 +7816,19 @@
         <v>1359378</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1351924</v>
+        <v>1351474</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1364194</v>
+        <v>1364274</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9928484987718359</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9874042855394874</v>
+        <v>0.987075740445205</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9963657165061842</v>
+        <v>0.9964241635995204</v>
       </c>
     </row>
     <row r="33">
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7463</v>
+        <v>7496</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0006330584301774759</v>
@@ -7932,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.002204281719240946</v>
+        <v>0.002213915353409463</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6672</v>
+        <v>7187</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0005737455626952801</v>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.001889321061491951</v>
+        <v>0.002035193078755482</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -7962,19 +7962,19 @@
         <v>4170</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1074</v>
+        <v>1096</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9427</v>
+        <v>10363</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.000602776596004986</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.000155283913843277</v>
+        <v>0.0001584715169782039</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.001362811065898466</v>
+        <v>0.001498062899282396</v>
       </c>
     </row>
     <row r="35">
@@ -7991,19 +7991,19 @@
         <v>12861</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7183</v>
+        <v>6895</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>23885</v>
+        <v>21138</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.003798608965211836</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.002121478974819724</v>
+        <v>0.002036375887106103</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.007054527922597092</v>
+        <v>0.006243378612902285</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4712</v>
+        <v>6224</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0002665023768784437</v>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.001334138495493439</v>
+        <v>0.001762242624187636</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -8033,19 +8033,19 @@
         <v>13802</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7124</v>
+        <v>7520</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>23573</v>
+        <v>23718</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.00199531280827629</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001029933666979234</v>
+        <v>0.00108710205454426</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.003407803697944342</v>
+        <v>0.003428743593414391</v>
       </c>
     </row>
     <row r="36">
@@ -8062,19 +8062,19 @@
         <v>33776</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23343</v>
+        <v>22789</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>48643</v>
+        <v>46947</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.009975937991279675</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.006894536127656254</v>
+        <v>0.006730866302654816</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01436702510486375</v>
+        <v>0.01386603930389471</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>13</v>
@@ -8083,19 +8083,19 @@
         <v>13921</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>7125</v>
+        <v>7190</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>22805</v>
+        <v>23537</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.003941728564789117</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.002017585537520753</v>
+        <v>0.00203597805180224</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.006457471508687183</v>
+        <v>0.006664739729641091</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>43</v>
@@ -8104,19 +8104,19 @@
         <v>47696</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>35172</v>
+        <v>35068</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>64557</v>
+        <v>65107</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006895208008533306</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005084634200935152</v>
+        <v>0.005069602855267071</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0093326499689189</v>
+        <v>0.009412155415423142</v>
       </c>
     </row>
     <row r="37">
@@ -8133,19 +8133,19 @@
         <v>3336942</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3319548</v>
+        <v>3320293</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3349814</v>
+        <v>3350006</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.985592394613331</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9804549017920171</v>
+        <v>0.980675013840171</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9893942095855345</v>
+        <v>0.989450919189316</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3310</v>
@@ -8154,19 +8154,19 @@
         <v>3514708</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3505111</v>
+        <v>3503961</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3521947</v>
+        <v>3521801</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9952180234956371</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9925005960854986</v>
+        <v>0.992174932271647</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9972677101656297</v>
+        <v>0.9972264258265</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6490</v>
@@ -8175,19 +8175,19 @@
         <v>6851650</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6831953</v>
+        <v>6831653</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6866199</v>
+        <v>6866483</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9905067025871854</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9876591673493008</v>
+        <v>0.9876159296620721</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9926099539138484</v>
+        <v>0.9926510781663422</v>
       </c>
     </row>
     <row r="38">
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4643</v>
+        <v>4449</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002884383157338193</v>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0154233130444845</v>
+        <v>0.0147788968661987</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -8545,16 +8545,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4645</v>
+        <v>4416</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.007972755803640891</v>
+        <v>0.007972755803640893</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02720340961754127</v>
+        <v>0.02586264653665347</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -8563,19 +8563,19 @@
         <v>2230</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6539</v>
+        <v>5675</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004725907187154228</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001128086299800142</v>
+        <v>0.001142826544455607</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01385815209274627</v>
+        <v>0.01202717425554341</v>
       </c>
     </row>
     <row r="5">
@@ -8592,19 +8592,19 @@
         <v>3186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8684</v>
+        <v>7993</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01058261923731292</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003051660116098998</v>
+        <v>0.003034418799103748</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02884610901505656</v>
+        <v>0.02655035632510292</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -8626,19 +8626,19 @@
         <v>3186</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7659</v>
+        <v>8853</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.00675268204942523</v>
+        <v>0.006752682049425232</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001882200401169586</v>
+        <v>0.001937302197632989</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01623363648065835</v>
+        <v>0.01876325143005675</v>
       </c>
     </row>
     <row r="6">
@@ -8655,19 +8655,19 @@
         <v>4389</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1681</v>
+        <v>1603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10184</v>
+        <v>10439</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01457819993475026</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005585012706615323</v>
+        <v>0.005325305440164293</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03382721049112049</v>
+        <v>0.03467498057491181</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -8679,16 +8679,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3770</v>
+        <v>3270</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.003769759240620676</v>
+        <v>0.003769759240620677</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02208048996880619</v>
+        <v>0.01915044096114535</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -8697,19 +8697,19 @@
         <v>5033</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2022</v>
+        <v>2102</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10128</v>
+        <v>10147</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01066653609905542</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00428614138320743</v>
+        <v>0.004455993494933555</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0214653611826703</v>
+        <v>0.02150576980331527</v>
       </c>
     </row>
     <row r="7">
@@ -8726,19 +8726,19 @@
         <v>292620</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>285742</v>
+        <v>285134</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>297067</v>
+        <v>296812</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9719547976705987</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9491117882092556</v>
+        <v>0.9470897712536558</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9867259371765803</v>
+        <v>0.985878963117881</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>239</v>
@@ -8747,19 +8747,19 @@
         <v>168750</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>165109</v>
+        <v>165053</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170225</v>
+        <v>170209</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9882574849557383</v>
+        <v>0.9882574849557385</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9669336341360986</v>
+        <v>0.9666094595028284</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9968958478945529</v>
+        <v>0.9968012115852805</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>531</v>
@@ -8768,19 +8768,19 @@
         <v>461369</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>454398</v>
+        <v>453789</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>466484</v>
+        <v>466008</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.977854874664365</v>
+        <v>0.9778548746643652</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.963080603547558</v>
+        <v>0.9617899694436366</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9886972289138166</v>
+        <v>0.9876888552293825</v>
       </c>
     </row>
     <row r="8">
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6252</v>
+        <v>6524</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007294836309255008</v>
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02799143723504724</v>
+        <v>0.02920999370936208</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5220</v>
+        <v>5805</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.004448777027964483</v>
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01425285363926262</v>
+        <v>0.01585066156380146</v>
       </c>
     </row>
     <row r="10">
@@ -8948,19 +8948,19 @@
         <v>2940</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6584</v>
+        <v>6935</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02057437428108915</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005066674521772534</v>
+        <v>0.004983754932153184</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04607455162785884</v>
+        <v>0.04853198830671083</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -8969,19 +8969,19 @@
         <v>2940</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>789</v>
+        <v>728</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7098</v>
+        <v>6878</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008027032601834893</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002155454049817972</v>
+        <v>0.001988623105659864</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01937896297114277</v>
+        <v>0.01877821035378321</v>
       </c>
     </row>
     <row r="11">
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4885</v>
+        <v>4536</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004230025858708714</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02186941302019402</v>
+        <v>0.02030967110887847</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3840</v>
+        <v>3487</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004822525130341554</v>
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02687521089418752</v>
+        <v>0.02440130267133702</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5910</v>
+        <v>5363</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004461187735370582</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01613510018516471</v>
+        <v>0.01464393241102842</v>
       </c>
     </row>
     <row r="12">
@@ -9069,19 +9069,19 @@
         <v>220788</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>215825</v>
+        <v>216179</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>222657</v>
+        <v>222663</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9884751378320362</v>
+        <v>0.9884751378320363</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.966256898741865</v>
+        <v>0.9678407492281808</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9968456559280909</v>
+        <v>0.9968725809474221</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>199</v>
@@ -9090,19 +9090,19 @@
         <v>139265</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>134964</v>
+        <v>135063</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>141493</v>
+        <v>141500</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9746031005885692</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9445065552589118</v>
+        <v>0.9451977878063641</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9901986003285119</v>
+        <v>0.990246146950959</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>420</v>
@@ -9111,19 +9111,19 @@
         <v>360053</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>354547</v>
+        <v>354774</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>363851</v>
+        <v>363382</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9830630026348302</v>
+        <v>0.98306300263483</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9680300645230426</v>
+        <v>0.9686496746633059</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9934346748998684</v>
+        <v>0.9921533671726457</v>
       </c>
     </row>
     <row r="13">
@@ -9215,19 +9215,19 @@
         <v>2467</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6680</v>
+        <v>6864</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01081517893471119</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003325010064445051</v>
+        <v>0.00339066544184035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02928344678468736</v>
+        <v>0.03009169572677623</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -9249,19 +9249,19 @@
         <v>2467</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6677</v>
+        <v>6655</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00898170827880382</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0</v>
+        <v>0.002838645150537967</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02430987713060162</v>
+        <v>0.02422927516857563</v>
       </c>
     </row>
     <row r="15">
@@ -9325,19 +9325,19 @@
         <v>5479</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1665</v>
+        <v>1502</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14591</v>
+        <v>14128</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02401941254498394</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007298857198084951</v>
+        <v>0.006585993813727732</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0639644384183783</v>
+        <v>0.06193509803805001</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -9359,19 +9359,19 @@
         <v>5479</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1426</v>
+        <v>875</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15503</v>
+        <v>15123</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0199474606762988</v>
+        <v>0.01994746067629879</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005193144449159416</v>
+        <v>0.003185387180216661</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05644224407205113</v>
+        <v>0.05505619633158699</v>
       </c>
     </row>
     <row r="17">
@@ -9388,19 +9388,19 @@
         <v>220163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>211392</v>
+        <v>211488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>224793</v>
+        <v>224836</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.965165408520305</v>
+        <v>0.9651654085203049</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9267164176090085</v>
+        <v>0.9271362591480804</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9854621942982554</v>
+        <v>0.9856521555758087</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>68</v>
@@ -9422,19 +9422,19 @@
         <v>266728</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>256981</v>
+        <v>257169</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>271464</v>
+        <v>272114</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9710708310448974</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.935583655508196</v>
+        <v>0.9362717013345915</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9883116703383189</v>
+        <v>0.9906781320432839</v>
       </c>
     </row>
     <row r="18">
@@ -9526,19 +9526,19 @@
         <v>3825</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1278</v>
+        <v>1188</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9691</v>
+        <v>8948</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.007079896090242645</v>
+        <v>0.007079896090242643</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00236566225808125</v>
+        <v>0.002199057613772658</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01793819784834962</v>
+        <v>0.01656280640896435</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -9547,19 +9547,19 @@
         <v>4167</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1106</v>
+        <v>1230</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11814</v>
+        <v>13566</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01831791916763944</v>
+        <v>0.01831791916763943</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004861217847954864</v>
+        <v>0.005407487206769267</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05192649828202635</v>
+        <v>0.05962972285557473</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -9568,19 +9568,19 @@
         <v>7992</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3581</v>
+        <v>3749</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17275</v>
+        <v>16778</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01040990634340319</v>
+        <v>0.01040990634340318</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004664038502131319</v>
+        <v>0.004883381398299828</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02250061012636934</v>
+        <v>0.02185221627692591</v>
       </c>
     </row>
     <row r="20">
@@ -9597,19 +9597,19 @@
         <v>4662</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1697</v>
+        <v>1653</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11267</v>
+        <v>11181</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008628832900580738</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003141275019385725</v>
+        <v>0.003059925817977185</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02085382461418768</v>
+        <v>0.0206958237154804</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -9631,19 +9631,19 @@
         <v>4662</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1691</v>
+        <v>1432</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11527</v>
+        <v>10520</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.006071968420605056</v>
+        <v>0.006071968420605055</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002203093231341413</v>
+        <v>0.001864759039747939</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01501292606278824</v>
+        <v>0.01370165125475027</v>
       </c>
     </row>
     <row r="21">
@@ -9660,19 +9660,19 @@
         <v>4128</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12670</v>
+        <v>12010</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.007641211742142198</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0021771689863053</v>
+        <v>0.002151712724639338</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02345068296877873</v>
+        <v>0.02222993692228835</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -9697,16 +9697,16 @@
         <v>1160</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12011</v>
+        <v>11614</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.005376995583066783</v>
+        <v>0.005376995583066782</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001511456336840656</v>
+        <v>0.001510841309205614</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0156439071984763</v>
+        <v>0.01512674390484855</v>
       </c>
     </row>
     <row r="22">
@@ -9723,19 +9723,19 @@
         <v>527656</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>516970</v>
+        <v>518892</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>533168</v>
+        <v>534185</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9766500592670344</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9568716350366072</v>
+        <v>0.9604293931283139</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9868521419016704</v>
+        <v>0.9887353355102286</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>291</v>
@@ -9744,19 +9744,19 @@
         <v>223338</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>215691</v>
+        <v>213939</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>226399</v>
+        <v>226275</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9816820808323607</v>
+        <v>0.9816820808323606</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9480735017179752</v>
+        <v>0.9403702771444251</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.995138782152046</v>
+        <v>0.9945925127932308</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>798</v>
@@ -9765,19 +9765,19 @@
         <v>750993</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>739358</v>
+        <v>740327</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>757887</v>
+        <v>758123</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9781411296529252</v>
+        <v>0.978141129652925</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9629871006085903</v>
+        <v>0.9642481851084269</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9871198783345315</v>
+        <v>0.9874271665277559</v>
       </c>
     </row>
     <row r="23">
@@ -9869,19 +9869,19 @@
         <v>3900</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1422</v>
+        <v>1379</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8626</v>
+        <v>9381</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01517511074636104</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.005533069049384617</v>
+        <v>0.005364228104476587</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03356572368098648</v>
+        <v>0.03650156478409609</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -9890,19 +9890,19 @@
         <v>2174</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>681</v>
+        <v>569</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5346</v>
+        <v>5469</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01418396191526194</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004444938017888077</v>
+        <v>0.003710210997825157</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03488710847885611</v>
+        <v>0.03568512980477439</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -9911,19 +9911,19 @@
         <v>6074</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2841</v>
+        <v>2765</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11970</v>
+        <v>11104</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.01480486205663088</v>
+        <v>0.01480486205663087</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006926164566790941</v>
+        <v>0.006740483733370099</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02917792944875117</v>
+        <v>0.02706625830221974</v>
       </c>
     </row>
     <row r="25">
@@ -9940,19 +9940,19 @@
         <v>2672</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7179</v>
+        <v>7301</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01039706195647536</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002249152447463431</v>
+        <v>0.002257965146783546</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02793327744337029</v>
+        <v>0.0284079039014246</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -9974,19 +9974,19 @@
         <v>2672</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7663</v>
+        <v>8635</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006513186552859568</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001432782795800121</v>
+        <v>0.001460331704017429</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01867941223593902</v>
+        <v>0.02104756300409096</v>
       </c>
     </row>
     <row r="26">
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9905</v>
+        <v>8373</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008507396082775186</v>
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03854301663290075</v>
+        <v>0.03257871714260395</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4494</v>
+        <v>3389</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004933873167849866</v>
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02932210901111898</v>
+        <v>0.0221135958115538</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -10045,19 +10045,19 @@
         <v>2942</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9604</v>
+        <v>9197</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007172488412547073</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001302541646493952</v>
+        <v>0.001318994193701738</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02341056121866165</v>
+        <v>0.02241781176899016</v>
       </c>
     </row>
     <row r="27">
@@ -10074,19 +10074,19 @@
         <v>248236</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>240165</v>
+        <v>240614</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>252410</v>
+        <v>252488</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9659204312143884</v>
+        <v>0.9659204312143883</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9345141759202233</v>
+        <v>0.9362634448907787</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9821629236725363</v>
+        <v>0.9824677446135032</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>210</v>
@@ -10095,19 +10095,19 @@
         <v>150318</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>146336</v>
+        <v>146959</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>152199</v>
+        <v>152145</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.980882164916888</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9548950839934994</v>
+        <v>0.9589641488526544</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9931541733033018</v>
+        <v>0.9928000135654195</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>436</v>
@@ -10116,19 +10116,19 @@
         <v>398554</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>390186</v>
+        <v>390101</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>403587</v>
+        <v>403494</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.9715094629779625</v>
+        <v>0.9715094629779623</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9511105678275683</v>
+        <v>0.9509040915119665</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9837777227316236</v>
+        <v>0.9835507780317406</v>
       </c>
     </row>
     <row r="28">
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10103</v>
+        <v>11070</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01758503354373064</v>
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07988392156035794</v>
+        <v>0.08753337851892518</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -10257,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11201</v>
+        <v>11242</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01047514821680705</v>
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05275629413493441</v>
+        <v>0.05294834056111963</v>
       </c>
     </row>
     <row r="30">
@@ -10390,16 +10390,16 @@
         <v>124247</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>116368</v>
+        <v>115401</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>126471</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9824149664562694</v>
+        <v>0.9824149664562692</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.920116078439642</v>
+        <v>0.912466621481074</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -10411,16 +10411,16 @@
         <v>210088</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>201111</v>
+        <v>201070</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>212312</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.9895248517831928</v>
+        <v>0.9895248517831927</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9472437058650656</v>
+        <v>0.9470516594388799</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -10515,19 +10515,19 @@
         <v>12690</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7295</v>
+        <v>7407</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>20382</v>
+        <v>20290</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007758300196700341</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.004459951542472434</v>
+        <v>0.004528391829568683</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01246123236806344</v>
+        <v>0.01240504977595505</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -10536,19 +10536,19 @@
         <v>9926</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4733</v>
+        <v>4258</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>18914</v>
+        <v>18900</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01144343737071264</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005455907034518823</v>
+        <v>0.004909116148913447</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02180448681008839</v>
+        <v>0.02178833016160327</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>27</v>
@@ -10557,19 +10557,19 @@
         <v>22616</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14452</v>
+        <v>14333</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>33877</v>
+        <v>34810</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0090353778419367</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005773594557977005</v>
+        <v>0.005726329402494224</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0135343080996887</v>
+        <v>0.01390680616180286</v>
       </c>
     </row>
     <row r="35">
@@ -10586,19 +10586,19 @@
         <v>10520</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5713</v>
+        <v>5944</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19399</v>
+        <v>18922</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.00643168703625188</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.00349271842115354</v>
+        <v>0.0036342607143443</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0118599641162125</v>
+        <v>0.01156863513686126</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -10607,19 +10607,19 @@
         <v>2940</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7509</v>
+        <v>7135</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.003389237373126585</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0009223721848044097</v>
+        <v>0.0008297329164551167</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.00865659575973921</v>
+        <v>0.008225022505518145</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>15</v>
@@ -10628,19 +10628,19 @@
         <v>13460</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7830</v>
+        <v>7588</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>21587</v>
+        <v>21851</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.005377331589476526</v>
+        <v>0.005377331589476527</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003128083411343703</v>
+        <v>0.003031560458036832</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0086243140882048</v>
+        <v>0.008729486850842173</v>
       </c>
     </row>
     <row r="36">
@@ -10657,19 +10657,19 @@
         <v>17127</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9311</v>
+        <v>9883</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27681</v>
+        <v>28943</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01047143558901941</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005692485483797026</v>
+        <v>0.006042047221768191</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01692349958441938</v>
+        <v>0.01769512171285105</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -10678,19 +10678,19 @@
         <v>2089</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6085</v>
+        <v>5652</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.002408150220791788</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0007393710636908468</v>
+        <v>0.0007401250390832122</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.007015219800516693</v>
+        <v>0.006516160171579081</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>18</v>
@@ -10699,19 +10699,19 @@
         <v>19216</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>11177</v>
+        <v>11731</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>31428</v>
+        <v>30751</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.007677118578639775</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004465316941770407</v>
+        <v>0.004686558520055647</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01255571794814607</v>
+        <v>0.01228539546774048</v>
       </c>
     </row>
     <row r="37">
@@ -10728,19 +10728,19 @@
         <v>1595303</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1580491</v>
+        <v>1580471</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1607228</v>
+        <v>1606496</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9753385771780284</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9662830006990142</v>
+        <v>0.9662707344926807</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9826296175382253</v>
+        <v>0.9821818826412492</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1150</v>
@@ -10749,19 +10749,19 @@
         <v>852482</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>842775</v>
+        <v>842235</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>858815</v>
+        <v>859057</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.982759175035369</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9715685578589102</v>
+        <v>0.9709467794169975</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9900599615796758</v>
+        <v>0.9903389312198422</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2660</v>
@@ -10770,19 +10770,19 @@
         <v>2447783</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2429327</v>
+        <v>2427464</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2460572</v>
+        <v>2460844</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9779101719899471</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9705368168012548</v>
+        <v>0.9697922101278055</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9830194290809553</v>
+        <v>0.9831279353639278</v>
       </c>
     </row>
     <row r="38">
